--- a/entrega 2 - simio Basemodel/Archivos Auxiliares/distancias asserraderos molinos.xlsx
+++ b/entrega 2 - simio Basemodel/Archivos Auxiliares/distancias asserraderos molinos.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Desktop\Simio\entrega 2 - simio model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Desktop\Simio\entrega 2 - simio Basemodel\Archivos Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="34">
   <si>
     <t>Input@KoalaPesajeEntrada</t>
   </si>
@@ -100,6 +101,33 @@
   <si>
     <t>y8</t>
   </si>
+  <si>
+    <t>DiasDeNoTrabajoAserraderos[</t>
+  </si>
+  <si>
+    <t>,DateTime.DayOfWeek(Run.TimeNow)]</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</t>
+  </si>
 </sst>
 </file>
 
@@ -120,15 +148,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,13 +170,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,8 +218,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:R101">
-    <sortCondition ref="R1:R101"/>
+  <sortState ref="A7:R100">
+    <sortCondition ref="A1:A101"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="asserradero"/>
@@ -501,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <f>E2+1</f>
+        <f t="shared" ref="F2:F33" si="0">E2+1</f>
         <v>5</v>
       </c>
       <c r="H2" t="s">
@@ -602,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="1">
-        <f>ABS(D2-I2) + ABS(F2-J2)</f>
+        <f t="shared" ref="L2:L33" si="1">ABS(D2-I2) + ABS(F2-J2)</f>
         <v>2</v>
       </c>
       <c r="N2">
@@ -612,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <f>L2+N2+P2</f>
+        <f t="shared" ref="R2:R33" si="2">L2+N2+P2</f>
         <v>3</v>
       </c>
     </row>
@@ -630,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <f>E3+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -643,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="1">
-        <f>ABS(D3-I3) + ABS(F3-J3)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N3">
@@ -653,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <f>L3+N3+P3</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -671,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <f>E4+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H4" t="s">
@@ -684,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="1">
-        <f>ABS(D4-I4) + ABS(F4-J4)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N4">
@@ -694,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <f>L4+N4+P4</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -712,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <f>E5+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H5" t="s">
@@ -725,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <f>ABS(D5-I5) + ABS(F5-J5)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N5">
@@ -735,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <f>L5+N5+P5</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -753,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <f>E6+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H6" t="s">
@@ -766,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <f>ABS(D6-I6) + ABS(F6-J6)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N6">
@@ -776,26 +825,26 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <f>L6+N6+P6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>E7+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -808,35 +857,35 @@
       </c>
       <c r="L7">
         <f>ABS(D7-I7) + ABS(F7-J7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f>L7+N7+P7</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>E8+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -847,19 +896,19 @@
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <f>ABS(D8-I8) + ABS(F8-J8)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <f>L8+N8+P8</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -1151,20 +1200,20 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f>E16+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -1177,7 +1226,7 @@
       </c>
       <c r="L16">
         <f>ABS(D16-I16) + ABS(F16-J16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1187,7 +1236,7 @@
       </c>
       <c r="R16">
         <f>L16+N16+P16</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -1233,20 +1282,20 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f>E18+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -1257,9 +1306,9 @@
       <c r="J18">
         <v>5</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <f>ABS(D18-I18) + ABS(F18-J18)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1269,7 +1318,7 @@
       </c>
       <c r="R18">
         <f>L18+N18+P18</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -1315,20 +1364,20 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <f>E20+1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -1339,19 +1388,22 @@
       <c r="J20">
         <v>5</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <f>ABS(D20-I20) + ABS(F20-J20)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <f>L20+N20+P20</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -1520,20 +1572,20 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <f>E25+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -1546,17 +1598,17 @@
       </c>
       <c r="L25">
         <f>ABS(D25-I25) + ABS(F25-J25)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25">
         <f>L25+N25+P25</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -1766,13 +1818,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1792,7 +1844,7 @@
       </c>
       <c r="L31">
         <f>ABS(D31-I31) + ABS(F31-J31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1802,18 +1854,18 @@
       </c>
       <c r="R31">
         <f>L31+N31+P31</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1833,13 +1885,13 @@
       </c>
       <c r="L32">
         <f>ABS(D32-I32) + ABS(F32-J32)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <f>L32+N32+P32</f>
@@ -1848,13 +1900,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1874,7 +1926,7 @@
       </c>
       <c r="L33">
         <f>ABS(D33-I33) + ABS(F33-J33)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1884,7 +1936,7 @@
       </c>
       <c r="R33">
         <f>L33+N33+P33</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -1930,20 +1982,20 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <f>E35+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -1954,15 +2006,15 @@
       <c r="J35">
         <v>5</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <f>ABS(D35-I35) + ABS(F35-J35)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35">
         <f>L35+N35+P35</f>
@@ -1971,20 +2023,20 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <f>E36+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -1995,19 +2047,19 @@
       <c r="J36">
         <v>5</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <f>ABS(D36-I36) + ABS(F36-J36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="R36">
         <f>L36+N36+P36</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -2053,20 +2105,20 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <f>E38+1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2077,7 +2129,7 @@
       <c r="J38">
         <v>5</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <f>ABS(D38-I38) + ABS(F38-J38)</f>
         <v>5</v>
       </c>
@@ -2135,20 +2187,20 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <f>E40+1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -2159,19 +2211,19 @@
       <c r="J40">
         <v>5</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <f>ABS(D40-I40) + ABS(F40-J40)</f>
         <v>5</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <f>L40+N40+P40</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -2381,20 +2433,20 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <f>E46+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2405,9 +2457,9 @@
       <c r="J46">
         <v>5</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="1">
         <f>ABS(D46-I46) + ABS(F46-J46)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2417,7 +2469,7 @@
       </c>
       <c r="R46">
         <f>L46+N46+P46</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -2463,20 +2515,20 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <f>E48+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2489,35 +2541,35 @@
       </c>
       <c r="L48" s="1">
         <f>ABS(D48-I48) + ABS(F48-J48)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="R48">
         <f>L48+N48+P48</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <f>E49+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -2530,7 +2582,7 @@
       </c>
       <c r="L49" s="1">
         <f>ABS(D49-I49) + ABS(F49-J49)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2540,7 +2592,7 @@
       </c>
       <c r="R49">
         <f>L49+N49+P49</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -2832,20 +2884,20 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <f>E57+1</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -2856,19 +2908,19 @@
       <c r="J57">
         <v>5</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="1">
         <f>ABS(D57-I57) + ABS(F57-J57)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <f>L57+N57+P57</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3078,20 +3130,20 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63">
         <f>E63+1</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3102,19 +3154,19 @@
       <c r="J63">
         <v>5</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="1">
         <f>ABS(D63-I63) + ABS(F63-J63)</f>
         <v>4</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <f>L63+N63+P63</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3242,7 +3294,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -3251,11 +3303,11 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67">
         <f>E67+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -3268,17 +3320,17 @@
       </c>
       <c r="L67" s="1">
         <f>ABS(D67-I67) + ABS(F67-J67)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="R67">
         <f>L67+N67+P67</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3447,20 +3499,20 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F72">
         <f>E72+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -3471,19 +3523,19 @@
       <c r="J72">
         <v>5</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="1">
         <f>ABS(D72-I72) + ABS(F72-J72)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <f>L72+N72+P72</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3570,20 +3622,20 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F75">
         <f>E75+1</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3594,37 +3646,37 @@
       <c r="J75">
         <v>5</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="1">
         <f>ABS(D75-I75) + ABS(F75-J75)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <f>L75+N75+P75</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F76">
         <f>E76+1</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -3635,37 +3687,37 @@
       <c r="J76">
         <v>5</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="1">
         <f>ABS(D76-I76) + ABS(F76-J76)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <f>L76+N76+P76</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F77">
         <f>E77+1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -3678,17 +3730,17 @@
       </c>
       <c r="L77">
         <f>ABS(D77-I77) + ABS(F77-J77)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77">
         <f>L77+N77+P77</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -3734,20 +3786,20 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <f>E79+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3760,22 +3812,22 @@
       </c>
       <c r="L79">
         <f>ABS(D79-I79) + ABS(F79-J79)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N79">
         <v>1</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <f>L79+N79+P79</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -3784,11 +3836,11 @@
         <v>5</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F80">
         <f>E80+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3801,17 +3853,17 @@
       </c>
       <c r="L80">
         <f>ABS(D80-I80) + ABS(F80-J80)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80">
         <f>L80+N80+P80</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -4226,20 +4278,20 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F91">
         <f>E91+1</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4252,35 +4304,35 @@
       </c>
       <c r="L91">
         <f>ABS(D91-I91) + ABS(F91-J91)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <f>L91+N91+P91</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F92">
         <f>E92+1</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4293,20 +4345,17 @@
       </c>
       <c r="L92">
         <f>ABS(D92-I92) + ABS(F92-J92)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P92">
         <v>1</v>
       </c>
       <c r="R92">
         <f>L92+N92+P92</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -4434,20 +4483,20 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F96">
         <f>E96+1</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4458,19 +4507,19 @@
       <c r="J96">
         <v>5</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L96">
         <f>ABS(D96-I96) + ABS(F96-J96)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <f>L96+N96+P96</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -4598,20 +4647,20 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F100">
         <f>E100+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4624,17 +4673,17 @@
       </c>
       <c r="L100">
         <f>ABS(D100-I100) + ABS(F100-J100)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="R100">
         <f>L100+N100+P100</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -4651,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="F101">
-        <f>E101+1</f>
+        <f t="shared" ref="F98:F129" si="3">E101+1</f>
         <v>10</v>
       </c>
       <c r="H101" t="s">
@@ -4664,7 +4713,7 @@
         <v>5</v>
       </c>
       <c r="L101">
-        <f>ABS(D101-I101) + ABS(F101-J101)</f>
+        <f t="shared" ref="L66:L101" si="4">ABS(D101-I101) + ABS(F101-J101)</f>
         <v>10</v>
       </c>
       <c r="N101">
@@ -4674,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="R101">
-        <f>L101+N101+P101</f>
+        <f t="shared" ref="R66:R101" si="5">L101+N101+P101</f>
         <v>12</v>
       </c>
     </row>
@@ -4685,4 +4734,668 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45</v>
+      </c>
+      <c r="P1" s="3">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>49</v>
+      </c>
+      <c r="R1" s="3">
+        <v>50</v>
+      </c>
+      <c r="S1" s="2">
+        <v>53</v>
+      </c>
+      <c r="T1" s="3">
+        <v>55</v>
+      </c>
+      <c r="U1" s="2">
+        <v>60</v>
+      </c>
+      <c r="V1" s="3">
+        <v>61</v>
+      </c>
+      <c r="W1" s="2">
+        <v>62</v>
+      </c>
+      <c r="X1" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>CONCATENATE(A2,A1,A3)</f>
+        <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE(B2,B1,B3)</f>
+        <v>DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:AD6" si="0">CONCATENATE(C2,C1,C3)</f>
+        <v>DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="0"/>
+        <v>DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>CONCATENATE(A4,A5)</f>
+        <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE(B4,B5)</f>
+        <v>DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(C4,C5)</f>
+        <v>DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:AD6" si="1">CONCATENATE(D4,D5)</f>
+        <v>DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="1"/>
+        <v>DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]+</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>_xlfn.CONCAT(A6:AD6)</f>
+        <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT(A9:A12)</f>
+        <v>ABCD</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/entrega 2 - simio Basemodel/Archivos Auxiliares/distancias asserraderos molinos.xlsx
+++ b/entrega 2 - simio Basemodel/Archivos Auxiliares/distancias asserraderos molinos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Desktop\Simio\entrega 2 - simio Basemodel\Archivos Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\simio\entrega 2 - simio Basemodel\Archivos Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="37">
   <si>
     <t>Input@KoalaPesajeEntrada</t>
   </si>
@@ -128,6 +128,15 @@
   <si>
     <t>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</t>
   </si>
+  <si>
+    <t>NoTrabajaDomingo</t>
+  </si>
+  <si>
+    <t>NoTrabajaLunes</t>
+  </si>
+  <si>
+    <t>CamMax</t>
+  </si>
 </sst>
 </file>
 
@@ -210,18 +219,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:R101" totalsRowShown="0">
-  <autoFilter ref="A1:R101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:U101" totalsRowShown="0">
+  <autoFilter ref="A1:U101">
     <filterColumn colId="1">
       <filters>
-        <filter val="Input@BrightPesajeEntrada"/>
+        <filter val="Input@PaperPesajeEntrad"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A7:R100">
+  <sortState ref="A2:R101">
     <sortCondition ref="A1:A101"/>
   </sortState>
-  <tableColumns count="18">
+  <tableColumns count="21">
     <tableColumn id="1" name="asserradero"/>
     <tableColumn id="2" name="Columna1"/>
     <tableColumn id="3" name="Columna2"/>
@@ -246,13 +255,16 @@
     <tableColumn id="21" name="Distance Correcta">
       <calculatedColumnFormula>L2+N2+P2</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" name="NoTrabajaDomingo"/>
+    <tableColumn id="8" name="NoTrabajaLunes"/>
+    <tableColumn id="16" name="CamMax"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,27 +560,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -623,23 +637,32 @@
       <c r="R1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">E2+1</f>
-        <v>5</v>
+        <f>E2+1</f>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -650,37 +673,46 @@
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L33" si="1">ABS(D2-I2) + ABS(F2-J2)</f>
-        <v>2</v>
+      <c r="L2">
+        <f>ABS(D2-I2) + ABS(F2-J2)</f>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R33" si="2">L2+N2+P2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <f>L2+N2+P2</f>
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>E3+1</f>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -691,9 +723,9 @@
       <c r="J3">
         <v>7</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="L3">
+        <f>ABS(D3-I3) + ABS(F3-J3)</f>
+        <v>9</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -702,108 +734,135 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <f>L3+N3+P3</f>
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>E4+1</f>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f>ABS(D4-I4) + ABS(F4-J4)</f>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <f>L4+N4+P4</f>
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>E5+1</f>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>ABS(D5-I5) + ABS(F5-J5)</f>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <f>L5+N5+P5</f>
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>E6+1</f>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -815,29 +874,38 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>ABS(D6-I6) + ABS(F6-J6)</f>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <f>L6+N6+P6</f>
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,38 +915,47 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="L7">
         <f>ABS(D7-I7) + ABS(F7-J7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <f>L7+N7+P7</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -898,199 +975,247 @@
       </c>
       <c r="L8">
         <f>ABS(D8-I8) + ABS(F8-J8)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f>L8+N8+P8</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>E9+1</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <f>ABS(D9-I9) + ABS(F9-J9)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f>L9+N9+P9</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>E10+1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10">
         <f>ABS(D10-I10) + ABS(F10-J10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="R10">
         <f>L10+N10+P10</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f>E11+1</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="L11">
         <f>ABS(D11-I11) + ABS(F11-J11)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="R11">
         <f>L11+N11+P11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <f>E12+1</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <f>ABS(D12-I12) + ABS(F12-J12)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <f>L12+N12+P12</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f>E13+1</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -1103,28 +1228,37 @@
       </c>
       <c r="L13">
         <f>ABS(D13-I13) + ABS(F13-J13)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <f>L13+N13+P13</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1134,17 +1268,17 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <f>ABS(D14-I14) + ABS(F14-J14)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1154,25 +1288,34 @@
       </c>
       <c r="R14">
         <f>L14+N14+P14</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f>E15+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -1185,35 +1328,44 @@
       </c>
       <c r="L15">
         <f>ABS(D15-I15) + ABS(F15-J15)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <f>L15+N15+P15</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f>E16+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -1226,44 +1378,53 @@
       </c>
       <c r="L16">
         <f>ABS(D16-I16) + ABS(F16-J16)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <f>L16+N16+P16</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f>E17+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <f>ABS(D17-I17) + ABS(F17-J17)</f>
@@ -1273,22 +1434,31 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <f>L17+N17+P17</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1298,79 +1468,97 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="L18">
         <f>ABS(D18-I18) + ABS(F18-J18)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <f>L18+N18+P18</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f>E19+1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>7</v>
-      </c>
-      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19">
         <f>ABS(D19-I19) + ABS(F19-J19)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="R19">
         <f>L19+N19+P19</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1380,48 +1568,54 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <f>ABS(D20-I20) + ABS(F20-J20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <f>L20+N20+P20</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <f>E21+1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
@@ -1434,48 +1628,57 @@
       </c>
       <c r="L21">
         <f>ABS(D21-I21) + ABS(F21-J21)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <f>L21+N21+P21</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <f>E22+1</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <f>ABS(D22-I22) + ABS(F22-J22)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1485,25 +1688,34 @@
       </c>
       <c r="R22">
         <f>L22+N22+P22</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f>E23+1</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -1516,35 +1728,44 @@
       </c>
       <c r="L23">
         <f>ABS(D23-I23) + ABS(F23-J23)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23">
         <f>L23+N23+P23</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <f>E24+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -1557,61 +1778,79 @@
       </c>
       <c r="L24">
         <f>ABS(D24-I24) + ABS(F24-J24)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <f>L24+N24+P24</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <f>E25+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <f>ABS(D25-I25) + ABS(F25-J25)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <f>L25+N25+P25</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1651,8 +1890,17 @@
         <f>L26+N26+P26</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1692,8 +1940,17 @@
         <f>L27+N27+P27</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1733,8 +1990,17 @@
         <f>L28+N28+P28</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1774,16 +2040,25 @@
         <f>L29+N29+P29</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1793,45 +2068,54 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <f>ABS(D30-I30) + ABS(F30-J30)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="R30">
         <f>L30+N30+P30</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <f>E31+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -1844,7 +2128,7 @@
       </c>
       <c r="L31">
         <f>ABS(D31-I31) + ABS(F31-J31)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1854,59 +2138,77 @@
       </c>
       <c r="R31">
         <f>L31+N31+P31</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <f>E32+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
       <c r="L32">
         <f>ABS(D32-I32) + ABS(F32-J32)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <f>L32+N32+P32</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1916,20 +2218,20 @@
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="L33">
         <f>ABS(D33-I33) + ABS(F33-J33)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -1938,36 +2240,45 @@
         <f>L33+N33+P33</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <f>E34+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>7</v>
-      </c>
-      <c r="L34" s="1">
+        <v>5</v>
+      </c>
+      <c r="L34">
         <f>ABS(D34-I34) + ABS(F34-J34)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1977,18 +2288,27 @@
       </c>
       <c r="R34">
         <f>L34+N34+P34</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2008,28 +2328,37 @@
       </c>
       <c r="L35">
         <f>ABS(D35-I35) + ABS(F35-J35)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <f>L35+N35+P35</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2049,7 +2378,7 @@
       </c>
       <c r="L36">
         <f>ABS(D36-I36) + ABS(F36-J36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2059,59 +2388,77 @@
       </c>
       <c r="R36">
         <f>L36+N36+P36</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <f>E37+1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="L37" s="1">
+        <v>5</v>
+      </c>
+      <c r="L37">
         <f>ABS(D37-I37) + ABS(F37-J37)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37">
         <f>L37+N37+P37</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -2121,58 +2468,67 @@
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L38">
         <f>ABS(D38-I38) + ABS(F38-J38)</f>
         <v>5</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="R38">
         <f>L38+N38+P38</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <f>E39+1</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <v>5</v>
       </c>
       <c r="L39">
         <f>ABS(D39-I39) + ABS(F39-J39)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2182,41 +2538,50 @@
       </c>
       <c r="R39">
         <f>L39+N39+P39</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <f>E40+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>5</v>
-      </c>
-      <c r="L40" s="1">
+        <v>7</v>
+      </c>
+      <c r="L40">
         <f>ABS(D40-I40) + ABS(F40-J40)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2225,39 +2590,48 @@
         <f>L40+N40+P40</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <f>E41+1</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <v>5</v>
       </c>
       <c r="L41">
         <f>ABS(D41-I41) + ABS(F41-J41)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2266,23 +2640,32 @@
         <f>L41+N41+P41</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <f>E42+1</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
         <v>5</v>
@@ -2293,78 +2676,96 @@
       <c r="J42">
         <v>7</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="1">
         <f>ABS(D42-I42) + ABS(F42-J42)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>1</v>
       </c>
       <c r="R42">
         <f>L42+N42+P42</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <f>E43+1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="1">
         <f>ABS(D43-I43) + ABS(F43-J43)</f>
         <v>5</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <f>L43+N43+P43</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <f>E44+1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
         <v>3</v>
@@ -2375,24 +2776,33 @@
       <c r="J44">
         <v>5</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="1">
         <f>ABS(D44-I44) + ABS(F44-J44)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <f>L44+N44+P44</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2401,11 +2811,11 @@
         <v>9</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <f>E45+1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -2416,22 +2826,31 @@
       <c r="J45">
         <v>7</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="1">
         <f>ABS(D45-I45) + ABS(F45-J45)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="R45">
         <f>L45+N45+P45</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2471,23 +2890,32 @@
         <f>L46+N46+P46</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <f>E47+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -2498,22 +2926,31 @@
       <c r="J47">
         <v>7</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <f>ABS(D47-I47) + ABS(F47-J47)</f>
         <v>7</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="R47">
         <f>L47+N47+P47</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2553,16 +2990,25 @@
         <f>L48+N48+P48</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2572,56 +3018,65 @@
         <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L49" s="1">
         <f>ABS(D49-I49) + ABS(F49-J49)</f>
         <v>5</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <f>L49+N49+P49</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <f>E50+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J50">
-        <v>7</v>
-      </c>
-      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="L50" s="1">
         <f>ABS(D50-I50) + ABS(F50-J50)</f>
         <v>5</v>
       </c>
@@ -2629,284 +3084,347 @@
         <v>1</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <f>L50+N50+P50</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <f>E51+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="1">
         <f>ABS(D51-I51) + ABS(F51-J51)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="R51">
         <f>L51+N51+P51</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <f>E52+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52">
-        <v>5</v>
-      </c>
-      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="L52" s="1">
         <f>ABS(D52-I52) + ABS(F52-J52)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <f>L52+N52+P52</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53">
         <f>E53+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="L53" s="1">
         <f>ABS(D53-I53) + ABS(F53-J53)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <f>L53+N53+P53</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>10</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54">
         <f>E54+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J54">
-        <v>7</v>
-      </c>
-      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="L54" s="1">
         <f>ABS(D54-I54) + ABS(F54-J54)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <f>L54+N54+P54</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>11</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F55">
         <f>E55+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>7</v>
-      </c>
-      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="L55" s="1">
         <f>ABS(D55-I55) + ABS(F55-J55)</f>
         <v>7</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55">
         <f>L55+N55+P55</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F56">
         <f>E56+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J56">
-        <v>7</v>
-      </c>
-      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="L56" s="1">
         <f>ABS(D56-I56) + ABS(F56-J56)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <f>L56+N56+P56</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <f>E57+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L57" s="1">
         <f>ABS(D57-I57) + ABS(F57-J57)</f>
@@ -2916,70 +3434,88 @@
         <v>1</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <f>L57+N57+P57</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F58">
         <f>E58+1</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J58">
-        <v>5</v>
-      </c>
-      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="L58" s="1">
         <f>ABS(D58-I58) + ABS(F58-J58)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <f>L58+N58+P58</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F59">
         <f>E59+1</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H59" t="s">
         <v>5</v>
@@ -2990,37 +3526,46 @@
       <c r="J59">
         <v>7</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="1">
         <f>ABS(D59-I59) + ABS(F59-J59)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <f>L59+N59+P59</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F60">
         <f>E60+1</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H60" t="s">
         <v>5</v>
@@ -3031,119 +3576,146 @@
       <c r="J60">
         <v>7</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="1">
         <f>ABS(D60-I60) + ABS(F60-J60)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <f>L60+N60+P60</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <f>E61+1</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61">
         <v>5</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="1">
         <f>ABS(D61-I61) + ABS(F61-J61)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <f>L61+N61+P61</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F62">
         <f>E62+1</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J62">
         <v>5</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="1">
         <f>ABS(D62-I62) + ABS(F62-J62)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62">
         <f>L62+N62+P62</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63">
         <f>E63+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3156,51 +3728,60 @@
       </c>
       <c r="L63" s="1">
         <f>ABS(D63-I63) + ABS(F63-J63)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="R63">
         <f>L63+N63+P63</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F64">
         <f>E64+1</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L64">
         <f>ABS(D64-I64) + ABS(F64-J64)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -3209,23 +3790,32 @@
         <f>L64+N64+P64</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F65">
         <f>E65+1</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
         <v>5</v>
@@ -3238,48 +3828,57 @@
       </c>
       <c r="L65">
         <f>ABS(D65-I65) + ABS(F65-J65)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <f>L65+N65+P65</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F66">
         <f>E66+1</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66">
-        <v>7</v>
-      </c>
-      <c r="L66" s="1">
+        <v>5</v>
+      </c>
+      <c r="L66">
         <f>ABS(D66-I66) + ABS(F66-J66)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3289,100 +3888,127 @@
       </c>
       <c r="R66">
         <f>L66+N66+P66</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <f>E67+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J67">
         <v>5</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <f>ABS(D67-I67) + ABS(F67-J67)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="R67">
         <f>L67+N67+P67</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F68">
         <f>E68+1</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J68">
-        <v>7</v>
-      </c>
-      <c r="L68" s="1">
+        <v>5</v>
+      </c>
+      <c r="L68">
         <f>ABS(D68-I68) + ABS(F68-J68)</f>
         <v>5</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>1</v>
       </c>
       <c r="R68">
         <f>L68+N68+P68</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -3402,35 +4028,47 @@
       </c>
       <c r="L69">
         <f>ABS(D69-I69) + ABS(F69-J69)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R69">
         <f>L69+N69+P69</f>
+        <v>4</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>6</v>
+      </c>
+      <c r="X69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
       <c r="E70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70">
         <f>E70+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -3443,35 +4081,47 @@
       </c>
       <c r="L70">
         <f>ABS(D70-I70) + ABS(F70-J70)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <f>L70+N70+P70</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>6</v>
+      </c>
+      <c r="X70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F71">
         <f>E71+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -3484,76 +4134,100 @@
       </c>
       <c r="L71">
         <f>ABS(D71-I71) + ABS(F71-J71)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <f>L71+N71+P71</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>6</v>
+      </c>
+      <c r="X71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72">
         <f>E72+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J72">
         <v>5</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72">
         <f>ABS(D72-I72) + ABS(F72-J72)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R72">
         <f>L72+N72+P72</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <f>E73+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
         <v>3</v>
@@ -3566,7 +4240,7 @@
       </c>
       <c r="L73">
         <f>ABS(D73-I73) + ABS(F73-J73)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -3576,161 +4250,209 @@
       </c>
       <c r="R73">
         <f>L73+N73+P73</f>
+        <v>10</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>4</v>
+      </c>
+      <c r="X73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
         <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>94</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>10</v>
       </c>
       <c r="F74">
         <f>E74+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H74" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L74">
         <f>ABS(D74-I74) + ABS(F74-J74)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
         <f>L74+N74+P74</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>5</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F75">
         <f>E75+1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J75">
         <v>5</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75">
         <f>ABS(D75-I75) + ABS(F75-J75)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="R75">
         <f>L75+N75+P75</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>6</v>
+      </c>
+      <c r="X75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F76">
         <f>E76+1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76">
         <f>ABS(D76-I76) + ABS(F76-J76)</f>
         <v>6</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="R76">
         <f>L76+N76+P76</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>6</v>
+      </c>
+      <c r="X76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F77">
         <f>E77+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L77">
         <f>ABS(D77-I77) + ABS(F77-J77)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -3740,120 +4462,156 @@
       </c>
       <c r="R77">
         <f>L77+N77+P77</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>4</v>
+      </c>
+      <c r="X77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F78">
         <f>E78+1</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L78">
         <f>ABS(D78-I78) + ABS(F78-J78)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <f>L78+N78+P78</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>5</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79">
         <f>E79+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J79">
         <v>5</v>
       </c>
       <c r="L79">
         <f>ABS(D79-I79) + ABS(F79-J79)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R79">
         <f>L79+N79+P79</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>4</v>
+      </c>
+      <c r="X79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <f>E80+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J80">
         <v>5</v>
       </c>
       <c r="L80">
         <f>ABS(D80-I80) + ABS(F80-J80)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -3863,38 +4621,50 @@
       </c>
       <c r="R80">
         <f>L80+N80+P80</f>
+        <v>7</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="X80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="E81">
         <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
       </c>
       <c r="F81">
         <f>E81+1</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H81" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L81">
         <f>ABS(D81-I81) + ABS(F81-J81)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -3904,34 +4674,46 @@
       </c>
       <c r="R81">
         <f>L81+N81+P81</f>
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>4</v>
+      </c>
+      <c r="X81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
       <c r="E82">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F82">
         <f>E82+1</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L82">
         <f>ABS(D82-I82) + ABS(F82-J82)</f>
@@ -3947,23 +4729,35 @@
         <f>L82+N82+P82</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>4</v>
+      </c>
+      <c r="X82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F83">
         <f>E83+1</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H83" t="s">
         <v>5</v>
@@ -3976,35 +4770,47 @@
       </c>
       <c r="L83">
         <f>ABS(D83-I83) + ABS(F83-J83)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="P83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R83">
         <f>L83+N83+P83</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>6</v>
+      </c>
+      <c r="X83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F84">
         <f>E84+1</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H84" t="s">
         <v>5</v>
@@ -4017,7 +4823,7 @@
       </c>
       <c r="L84">
         <f>ABS(D84-I84) + ABS(F84-J84)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4027,66 +4833,87 @@
       </c>
       <c r="R84">
         <f>L84+N84+P84</f>
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>6</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>31</v>
-      </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>11</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
       </c>
       <c r="F85">
         <f>E85+1</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J85">
         <v>5</v>
       </c>
       <c r="L85">
         <f>ABS(D85-I85) + ABS(F85-J85)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <f>L85+N85+P85</f>
+        <v>11</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
         <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>41</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>4</v>
       </c>
       <c r="F86">
         <f>E86+1</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H86" t="s">
         <v>5</v>
@@ -4097,9 +4924,9 @@
       <c r="J86">
         <v>7</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L86">
         <f>ABS(D86-I86) + ABS(F86-J86)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -4109,38 +4936,47 @@
       </c>
       <c r="R86">
         <f>L86+N86+P86</f>
+        <v>8</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
         <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>54</v>
-      </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>11</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
       </c>
       <c r="F87">
         <f>E87+1</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="L87" s="1">
+        <v>7</v>
+      </c>
+      <c r="L87">
         <f>ABS(D87-I87) + ABS(F87-J87)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -4150,38 +4986,47 @@
       </c>
       <c r="R87">
         <f>L87+N87+P87</f>
+        <v>7</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
         <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>81</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>8</v>
       </c>
       <c r="F88">
         <f>E88+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J88">
         <v>5</v>
       </c>
       <c r="L88">
         <f>ABS(D88-I88) + ABS(F88-J88)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4191,38 +5036,47 @@
       </c>
       <c r="R88">
         <f>L88+N88+P88</f>
+        <v>8</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
         <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>93</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89">
-        <v>10</v>
       </c>
       <c r="F89">
         <f>E89+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L89">
         <f>ABS(D89-I89) + ABS(F89-J89)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -4232,25 +5086,34 @@
       </c>
       <c r="R89">
         <f>L89+N89+P89</f>
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
         <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
       </c>
       <c r="F90">
         <f>E90+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H90" t="s">
         <v>3</v>
@@ -4263,7 +5126,7 @@
       </c>
       <c r="L90">
         <f>ABS(D90-I90) + ABS(F90-J90)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -4273,18 +5136,27 @@
       </c>
       <c r="R90">
         <f>L90+N90+P90</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>9</v>
@@ -4294,17 +5166,17 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L91">
         <f>ABS(D91-I91) + ABS(F91-J91)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -4314,38 +5186,47 @@
       </c>
       <c r="R91">
         <f>L91+N91+P91</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <f>E92+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J92">
         <v>5</v>
       </c>
       <c r="L92">
         <f>ABS(D92-I92) + ABS(F92-J92)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -4355,34 +5236,43 @@
       </c>
       <c r="R92">
         <f>L92+N92+P92</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F93">
         <f>E93+1</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L93">
         <f>ABS(D93-I93) + ABS(F93-J93)</f>
@@ -4392,29 +5282,38 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R93">
         <f>L93+N93+P93</f>
+        <v>12</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
         <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>21</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
       </c>
       <c r="F94">
         <f>E94+1</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H94" t="s">
         <v>5</v>
@@ -4427,7 +5326,7 @@
       </c>
       <c r="L94">
         <f>ABS(D94-I94) + ABS(F94-J94)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -4437,34 +5336,43 @@
       </c>
       <c r="R94">
         <f>L94+N94+P94</f>
+        <v>9</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
         <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>22</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
       </c>
       <c r="F95">
         <f>E95+1</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L95">
         <f>ABS(D95-I95) + ABS(F95-J95)</f>
@@ -4474,22 +5382,31 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R95">
         <f>L95+N95+P95</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -4499,10 +5416,10 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -4515,42 +5432,51 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <f>L96+N96+P96</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
         <v>10</v>
-      </c>
-      <c r="E97">
-        <v>7</v>
       </c>
       <c r="F97">
         <f>E97+1</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L97">
         <f>ABS(D97-I97) + ABS(F97-J97)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -4560,38 +5486,47 @@
       </c>
       <c r="R97">
         <f>L97+N97+P97</f>
+        <v>7</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
         <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>72</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>11</v>
-      </c>
-      <c r="E98">
-        <v>7</v>
       </c>
       <c r="F98">
         <f>E98+1</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J98">
         <v>5</v>
       </c>
       <c r="L98">
         <f>ABS(D98-I98) + ABS(F98-J98)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -4601,59 +5536,77 @@
       </c>
       <c r="R98">
         <f>L98+N98+P98</f>
+        <v>8</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99">
         <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>91</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>9</v>
-      </c>
-      <c r="E99">
-        <v>9</v>
       </c>
       <c r="F99">
         <f>E99+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L99">
         <f>ABS(D99-I99) + ABS(F99-J99)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R99">
         <f>L99+N99+P99</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>10</v>
@@ -4673,58 +5626,76 @@
       </c>
       <c r="L100">
         <f>ABS(D100-I100) + ABS(F100-J100)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100">
         <f>L100+N100+P100</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D101">
+        <v>9</v>
+      </c>
+      <c r="E101">
         <v>10</v>
       </c>
-      <c r="E101">
-        <v>9</v>
-      </c>
       <c r="F101">
-        <f t="shared" ref="F98:F129" si="3">E101+1</f>
-        <v>10</v>
+        <f>E101+1</f>
+        <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J101">
         <v>5</v>
       </c>
       <c r="L101">
-        <f t="shared" ref="L66:L101" si="4">ABS(D101-I101) + ABS(F101-J101)</f>
-        <v>10</v>
+        <f>ABS(D101-I101) + ABS(F101-J101)</f>
+        <v>8</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <f t="shared" ref="R66:R101" si="5">L101+N101+P101</f>
-        <v>12</v>
+        <f>L101+N101+P101</f>
+        <v>8</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4740,16 +5711,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>3</v>
       </c>
@@ -4841,7 +5812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4933,7 +5904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5025,7 +5996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A2,A1,A3)</f>
         <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]</v>
@@ -5035,7 +6006,7 @@
         <v>DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:AD6" si="0">CONCATENATE(C2,C1,C3)</f>
+        <f t="shared" ref="C4:AD4" si="0">CONCATENATE(C2,C1,C3)</f>
         <v>DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]</v>
       </c>
       <c r="D4" t="str">
@@ -5147,7 +6118,7 @@
         <v>DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5239,7 +6210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A4,A5)</f>
         <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+</v>
@@ -5253,7 +6224,7 @@
         <v>DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:AD6" si="1">CONCATENATE(D4,D5)</f>
+        <f t="shared" ref="D6:AC6" si="1">CONCATENATE(D4,D5)</f>
         <v>DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+</v>
       </c>
       <c r="E6" t="str">
@@ -5360,13 +6331,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT(A6:AD6)</f>
         <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -5375,22 +6346,22 @@
         <v>ABCD</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>33</v>
       </c>
